--- a/Tools/bin/Excel/test.xlsx
+++ b/Tools/bin/Excel/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UnityWorkspace\Nullspace\Tools\ToolBinary\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity\Nullspace\Tools\bin\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D9C071-EEE2-4C86-B3AD-1B499B8FE8BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterProperty" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="224">
   <si>
     <t>Index</t>
   </si>
@@ -760,13 +759,17 @@
   </si>
   <si>
     <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1033,23 +1036,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1085,23 +1071,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1277,7 +1246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6232,10 +6201,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:D4 F4:K4 M4:XFD4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:D4 F4:K4 M4:XFD4">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6245,14 +6214,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6373,16 +6342,16 @@
         <v>146</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>223</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>146</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>148</v>
@@ -7291,10 +7260,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:XFD4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:XFD4">
       <formula1>"cs,s,c,skip"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:XFD3">
       <formula1>"uint,int,string,float,byte,short,ushort,word,char,vector3"</formula1>
     </dataValidation>
   </dataValidations>
